--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anaconda3\MeScripts\Comisiones4\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9405"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$C$123</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="308">
   <si>
     <t>EENN Y CONSULTORES Regiones</t>
   </si>
@@ -409,9 +414,6 @@
     <t>JNARURE3</t>
   </si>
   <si>
-    <t>JNARUSE3</t>
-  </si>
-  <si>
     <t>LUIS CHACON</t>
   </si>
   <si>
@@ -727,9 +729,6 @@
     <t>BAUGUSTO</t>
   </si>
   <si>
-    <t>AGOMEZ</t>
-  </si>
-  <si>
     <t>JTORRES</t>
   </si>
   <si>
@@ -751,9 +750,6 @@
     <t>DGISTAU</t>
   </si>
   <si>
-    <t>JEVALDIVIA</t>
-  </si>
-  <si>
     <t>SLOPEZ</t>
   </si>
   <si>
@@ -938,6 +934,18 @@
   </si>
   <si>
     <t>DHUARCAYA</t>
+  </si>
+  <si>
+    <t>JNARUSE</t>
+  </si>
+  <si>
+    <t>AOLAZABAL</t>
+  </si>
+  <si>
+    <t>JVALDIVIA</t>
+  </si>
+  <si>
+    <t>Sur (M.Guerra)</t>
   </si>
 </sst>
 </file>
@@ -945,8 +953,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1438,8 +1446,8 @@
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1498,7 +1506,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1545,59 +1553,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="61"/>
-    <cellStyle name="20% - Accent2" xfId="26" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="62"/>
-    <cellStyle name="20% - Accent3" xfId="30" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="63"/>
-    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="64"/>
-    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="65"/>
-    <cellStyle name="20% - Accent6" xfId="42" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="66"/>
-    <cellStyle name="40% - Accent1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="22" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="26" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="30" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="42" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="67"/>
-    <cellStyle name="40% - Accent2" xfId="27" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="68"/>
-    <cellStyle name="40% - Accent3" xfId="31" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="69"/>
-    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="70"/>
-    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="71"/>
-    <cellStyle name="40% - Accent6" xfId="43" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="72"/>
-    <cellStyle name="60% - Accent1" xfId="24" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="28" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="32" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="36" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="40" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="44" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="25" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="29" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="10" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="14" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="27" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="31" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="43" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="24" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="28" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="32" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="36" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="44" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="9" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="14" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="46"/>
     <cellStyle name="Cancel 2" xfId="47"/>
     <cellStyle name="Cancel 3" xfId="77"/>
-    <cellStyle name="Check Cell" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="15" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Comma 2" xfId="86"/>
     <cellStyle name="Currency 2" xfId="2"/>
     <cellStyle name="Currency 2 2" xfId="60"/>
-    <cellStyle name="Explanatory Text" xfId="19" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="9" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="8" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="12" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="15" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="8" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="21" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="25" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="29" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="41" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="12" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="10" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moneda 2" xfId="3"/>
     <cellStyle name="Neutral" xfId="11" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,24 +1626,30 @@
     <cellStyle name="Normal 7" xfId="55"/>
     <cellStyle name="Normal 8" xfId="56"/>
     <cellStyle name="Normal 9" xfId="57"/>
-    <cellStyle name="Note" xfId="18" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="18" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="75"/>
     <cellStyle name="Note 2 2" xfId="76"/>
-    <cellStyle name="Output" xfId="13" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="1"/>
     <cellStyle name="Percent 2 2" xfId="58"/>
     <cellStyle name="Percent 2 3" xfId="78"/>
     <cellStyle name="Percent 2 4" xfId="48"/>
     <cellStyle name="Percent 3" xfId="59"/>
-    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="13" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="17" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="19" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="7" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1899,7 +1910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1907,14 +1918,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1923,10 +1934,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>88</v>
@@ -1942,7 +1953,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -1966,10 +1977,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
         <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +2001,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,10 +2025,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
         <v>193</v>
-      </c>
-      <c r="B12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,7 +2041,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>126</v>
@@ -2062,10 +2073,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,34 +2097,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
         <v>154</v>
-      </c>
-      <c r="B21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,10 +2137,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2153,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2153,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -2198,18 +2209,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
         <v>199</v>
-      </c>
-      <c r="B36" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,34 +2241,34 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
         <v>156</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
         <v>197</v>
-      </c>
-      <c r="B40" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" t="s">
         <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" t="s">
         <v>195</v>
-      </c>
-      <c r="B42" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,26 +2305,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,10 +2345,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,10 +2377,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2409,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2430,10 +2441,10 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2473,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -2470,10 +2481,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
         <v>145</v>
-      </c>
-      <c r="B69" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,23 +2508,23 @@
         <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>130</v>
+        <v>176</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2537,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -2564,7 +2575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>113</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>35</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -2596,15 +2607,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>69</v>
       </c>
@@ -2612,23 +2623,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2644,15 +2655,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>75</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2684,81 +2696,81 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" t="s">
-        <v>187</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2766,7 +2778,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2774,7 +2786,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2782,55 +2794,55 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
@@ -2838,23 +2850,23 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>29</v>
@@ -2862,15 +2874,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
         <v>31</v>
@@ -2878,23 +2890,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
         <v>33</v>
@@ -2902,618 +2914,626 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B134" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>216</v>
+      <c r="A135" t="s">
+        <v>211</v>
       </c>
       <c r="B135" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>217</v>
-      </c>
-      <c r="B136" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B140" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>278</v>
+      </c>
+      <c r="B182" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B182" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>274</v>
+      <c r="B183" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B192" t="s">
-        <v>240</v>
+        <v>293</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>300</v>
+      <c r="A194" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B194" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B197" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
-        <v>305</v>
+      <c r="A198" t="s">
+        <v>300</v>
       </c>
       <c r="B198" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="B199" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="374">
   <si>
     <t>EENN Y CONSULTORES Regiones</t>
   </si>
@@ -30,9 +30,6 @@
     <t>VR NORTE - LUIS CHACON</t>
   </si>
   <si>
-    <t>VR NORTE - OLIVER WIESSE</t>
-  </si>
-  <si>
     <t>VR CENTRO - JANIO CASTILLO</t>
   </si>
   <si>
@@ -42,1069 +39,1111 @@
     <t>LCHACON</t>
   </si>
   <si>
+    <t>JCASTILLOT</t>
+  </si>
+  <si>
+    <t>ESAMPEN</t>
+  </si>
+  <si>
+    <t>CORPORACIONES</t>
+  </si>
+  <si>
+    <t>ALVARO (Corporaciones 2)</t>
+  </si>
+  <si>
+    <t>ANIBAL (Corporaciones 3)</t>
+  </si>
+  <si>
+    <t>FABIOLA / PAUL DIAZ (Corporaciones 1)</t>
+  </si>
+  <si>
+    <t>ROMINA (Corporaciones 4)</t>
+  </si>
+  <si>
+    <t>ECACERES</t>
+  </si>
+  <si>
+    <t>AGOMEZDECORDOVA</t>
+  </si>
+  <si>
+    <t>ACASTRO</t>
+  </si>
+  <si>
+    <t>PDIAZ</t>
+  </si>
+  <si>
+    <t>RMESETH</t>
+  </si>
+  <si>
+    <t>GRANDES CLIENTES</t>
+  </si>
+  <si>
+    <t>ROC - PD</t>
+  </si>
+  <si>
+    <t>PHOENIX - SB</t>
+  </si>
+  <si>
+    <t>EAGLE - JPA</t>
+  </si>
+  <si>
+    <t>CONDOR - RR</t>
+  </si>
+  <si>
+    <t>STYRKA - VA</t>
+  </si>
+  <si>
+    <t>JQUESADA</t>
+  </si>
+  <si>
+    <t>JYEPEZ</t>
+  </si>
+  <si>
+    <t>SBEZZUBIKOFF</t>
+  </si>
+  <si>
+    <t>JATKINS</t>
+  </si>
+  <si>
+    <t>SJIMENO</t>
+  </si>
+  <si>
+    <t>FTOCCI</t>
+  </si>
+  <si>
+    <t>VAGUILAR</t>
+  </si>
+  <si>
+    <t>Karen Rossel</t>
+  </si>
+  <si>
+    <t>Liliana Aguilar</t>
+  </si>
+  <si>
+    <t>José Luis Alvarado Burga</t>
+  </si>
+  <si>
+    <t>Carlos Luna Victoria</t>
+  </si>
+  <si>
+    <t>Dana Sanchez</t>
+  </si>
+  <si>
+    <t>Walter Sandoval</t>
+  </si>
+  <si>
+    <t>José Luis López</t>
+  </si>
+  <si>
+    <t>Ana Aguilar</t>
+  </si>
+  <si>
+    <t>Giancarlo García</t>
+  </si>
+  <si>
+    <t>Oscar Moreno Huacho</t>
+  </si>
+  <si>
+    <t>KROSSEL3</t>
+  </si>
+  <si>
+    <t>LAGUILAR2</t>
+  </si>
+  <si>
+    <t>JALVARADO</t>
+  </si>
+  <si>
+    <t>CLUNAVICTORIA</t>
+  </si>
+  <si>
+    <t>DSANCHEZ3</t>
+  </si>
+  <si>
+    <t>WSANDOVAL2</t>
+  </si>
+  <si>
+    <t>JLOPEZ3</t>
+  </si>
+  <si>
+    <t>AAGUILARO</t>
+  </si>
+  <si>
+    <t>GAGARCIAC</t>
+  </si>
+  <si>
+    <t>OMORENOH</t>
+  </si>
+  <si>
+    <t>Fabiola / Paul</t>
+  </si>
+  <si>
+    <t>Adm. Pública</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Anibal</t>
+  </si>
+  <si>
+    <t>Romina</t>
+  </si>
+  <si>
+    <t>Stanislav Bezzubikoff</t>
+  </si>
+  <si>
+    <t>Jaime Yepez</t>
+  </si>
+  <si>
+    <t>Jhon Patrick Atkins</t>
+  </si>
+  <si>
+    <t>Sandra Jimeno</t>
+  </si>
+  <si>
+    <t>Francisco Tocci</t>
+  </si>
+  <si>
+    <t>Violeta Aguilar</t>
+  </si>
+  <si>
+    <t>Empresas Regiones</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Empresas Regiones - Pymes</t>
+  </si>
+  <si>
+    <t>Norte 1: L.Chacón</t>
+  </si>
+  <si>
+    <t>Kam: Cristian Silva</t>
+  </si>
+  <si>
+    <t>Kam: Luis Gallo</t>
+  </si>
+  <si>
+    <t>Kam: Jorge Castro Malaga</t>
+  </si>
+  <si>
+    <t>Kam: Luis Saenz</t>
+  </si>
+  <si>
+    <t>Kam 3</t>
+  </si>
+  <si>
+    <t>Kam: Luis Aguad</t>
+  </si>
+  <si>
+    <t>Kam: Cesar Aguayo</t>
+  </si>
+  <si>
+    <t>CSILVA</t>
+  </si>
+  <si>
+    <t>LGALLO</t>
+  </si>
+  <si>
+    <t>JCASTRO</t>
+  </si>
+  <si>
+    <t>LSAENZH</t>
+  </si>
+  <si>
+    <t>IAGUADC</t>
+  </si>
+  <si>
+    <t>CAGUAYO</t>
+  </si>
+  <si>
+    <t>Centro (J Castillo)</t>
+  </si>
+  <si>
+    <t>E.Goicochea</t>
+  </si>
+  <si>
+    <t>Cristian Silva</t>
+  </si>
+  <si>
+    <t>Jorge Castro Málaga</t>
+  </si>
+  <si>
+    <t>Luis Gallo</t>
+  </si>
+  <si>
+    <t>Luis Saenz</t>
+  </si>
+  <si>
+    <t>Cesar Aguayo</t>
+  </si>
+  <si>
+    <t>Luis Aguad</t>
+  </si>
+  <si>
+    <t>Kam: Enrique Sampén</t>
+  </si>
+  <si>
+    <t>Kam: Jorge Castro Málaga</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Adm Publica</t>
+  </si>
+  <si>
+    <t>Ejecutivo Negocio</t>
+  </si>
+  <si>
+    <t>DALFARO</t>
+  </si>
+  <si>
+    <t>DALFARO2</t>
+  </si>
+  <si>
+    <t>DLIZARRAGA</t>
+  </si>
+  <si>
+    <t>DLIZARRAGA2</t>
+  </si>
+  <si>
+    <t>GBACIGALUPO</t>
+  </si>
+  <si>
+    <t>JGONZALES</t>
+  </si>
+  <si>
+    <t>JGONZALES6</t>
+  </si>
+  <si>
+    <t>KBRAVO</t>
+  </si>
+  <si>
+    <t>KBRAVO2</t>
+  </si>
+  <si>
+    <t>KTELLO</t>
+  </si>
+  <si>
+    <t>KTELLO2</t>
+  </si>
+  <si>
+    <t>MSANTRACRUZ2</t>
+  </si>
+  <si>
+    <t>MSANTACRUZ2</t>
+  </si>
+  <si>
+    <t>OSILVASANTISTEBAN</t>
+  </si>
+  <si>
+    <t>OSILVASANTISTEBAN2</t>
+  </si>
+  <si>
+    <t>RCASANOVA</t>
+  </si>
+  <si>
+    <t>RCASANOVA2</t>
+  </si>
+  <si>
+    <t>SRIZOPATRON</t>
+  </si>
+  <si>
+    <t>SRIZOPATRON2</t>
+  </si>
+  <si>
+    <t>VAMESQUITA</t>
+  </si>
+  <si>
+    <t>VAMESQUITA2</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>CRIOS</t>
+  </si>
+  <si>
+    <t>CRIOS5</t>
+  </si>
+  <si>
+    <t>ENRIQUE SAMPEN</t>
+  </si>
+  <si>
+    <t>JNARURE3</t>
+  </si>
+  <si>
+    <t>LUIS CHACON</t>
+  </si>
+  <si>
+    <t>Luis Chacón</t>
+  </si>
+  <si>
+    <t>Oliver Wiesse</t>
+  </si>
+  <si>
+    <t>Gerente Canal Regional</t>
+  </si>
+  <si>
+    <t>EGOICOCHEA</t>
+  </si>
+  <si>
+    <t>Janio Castillo</t>
+  </si>
+  <si>
+    <t>V.PEÑA</t>
+  </si>
+  <si>
+    <t>VPENAQ</t>
+  </si>
+  <si>
+    <t>G.RIVERA</t>
+  </si>
+  <si>
+    <t>M.GUERRA</t>
+  </si>
+  <si>
+    <t>GRIVERA</t>
+  </si>
+  <si>
+    <t>ELLONTOP</t>
+  </si>
+  <si>
+    <t>DRAMOS</t>
+  </si>
+  <si>
+    <t>MGUERRA</t>
+  </si>
+  <si>
+    <t>J. GARCIA</t>
+  </si>
+  <si>
+    <t>JGARCIAM</t>
+  </si>
+  <si>
+    <t>J.DENEGRI</t>
+  </si>
+  <si>
+    <t>R.CHUNGA</t>
+  </si>
+  <si>
+    <t>J.ORTIZ</t>
+  </si>
+  <si>
+    <t>C. RIOS</t>
+  </si>
+  <si>
+    <t>JDENEGRI</t>
+  </si>
+  <si>
+    <t>RCHUNGA</t>
+  </si>
+  <si>
+    <t>JORTIZ</t>
+  </si>
+  <si>
+    <t>D.LOPEZ</t>
+  </si>
+  <si>
+    <t>DLOPEZ</t>
+  </si>
+  <si>
+    <t>E.TELLEZ</t>
+  </si>
+  <si>
+    <t>ETELLEZ</t>
+  </si>
+  <si>
+    <t>M.MIRANDA</t>
+  </si>
+  <si>
+    <t>MMIRANDA</t>
+  </si>
+  <si>
+    <t>Alicia Rojas</t>
+  </si>
+  <si>
+    <t>Jaime Avalos</t>
+  </si>
+  <si>
+    <t>Ana Sofía Aguilar</t>
+  </si>
+  <si>
+    <t>Dario Lopez</t>
+  </si>
+  <si>
+    <t>AROJAS4</t>
+  </si>
+  <si>
+    <t>JAVALOSH</t>
+  </si>
+  <si>
+    <t>DLOPEZTE</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>E. BACA</t>
+  </si>
+  <si>
+    <t>Carla Villalobos</t>
+  </si>
+  <si>
+    <t>CVILLALOBOST</t>
+  </si>
+  <si>
+    <t>M. MIRANDA</t>
+  </si>
+  <si>
+    <t>Ingrid Barranca</t>
+  </si>
+  <si>
+    <t>Luis Inga</t>
+  </si>
+  <si>
+    <t>IBARRANCAB</t>
+  </si>
+  <si>
+    <t>LINGAG</t>
+  </si>
+  <si>
+    <t>Darío López</t>
+  </si>
+  <si>
+    <t>Jorge Naruse</t>
+  </si>
+  <si>
+    <t>A.CHONYEN</t>
+  </si>
+  <si>
+    <t>ACHONYEN</t>
+  </si>
+  <si>
+    <t>Milagros Dávila</t>
+  </si>
+  <si>
+    <t>Milagros Dávila - Plataforma Carterizada</t>
+  </si>
+  <si>
+    <t>Fiorella Asian - Plataforma Inbound</t>
+  </si>
+  <si>
+    <t>Fiorella Asian</t>
+  </si>
+  <si>
+    <t>Michaell Hefti - Plataforma Outbound</t>
+  </si>
+  <si>
+    <t>Michaell Hefti</t>
+  </si>
+  <si>
+    <t>Kam: Victor Laguna</t>
+  </si>
+  <si>
+    <t>VLAGUNA</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>Reclamos</t>
+  </si>
+  <si>
+    <t>Farid Mauad</t>
+  </si>
+  <si>
+    <t>Backoffice</t>
+  </si>
+  <si>
+    <t>Erick La Torre</t>
+  </si>
+  <si>
+    <t>GUSTAVO URDAY</t>
+  </si>
+  <si>
+    <t>F. LLONTOP</t>
+  </si>
+  <si>
+    <t>D. RAMOS</t>
+  </si>
+  <si>
+    <t>E.BACA</t>
+  </si>
+  <si>
+    <t>EBACA</t>
+  </si>
+  <si>
+    <t>C.RIOS</t>
+  </si>
+  <si>
+    <t>D.LOPEZ (11 a 19 unds)</t>
+  </si>
+  <si>
+    <t>E.TELLEZ (12 a 19 unds)</t>
+  </si>
+  <si>
+    <t>M. MIRANDA (11 unds)</t>
+  </si>
+  <si>
+    <t>G.BACIGALUPO</t>
+  </si>
+  <si>
+    <t>Paloma Vessel</t>
+  </si>
+  <si>
+    <t>Carol Carrillo</t>
+  </si>
+  <si>
+    <t>CCARRILLOP</t>
+  </si>
+  <si>
+    <t>PLESSELD</t>
+  </si>
+  <si>
+    <t>Norte (L. Chacón)</t>
+  </si>
+  <si>
+    <t>Piura - L.Gallo</t>
+  </si>
+  <si>
+    <t>Lambayeque - J. Cieza</t>
+  </si>
+  <si>
+    <t>La Libertad - B. Augusto</t>
+  </si>
+  <si>
+    <t>Ancash - C. Silva</t>
+  </si>
+  <si>
+    <t>Cajamarca - J. Torres</t>
+  </si>
+  <si>
+    <t>N.Chico (Lima) - Milko Cruz</t>
+  </si>
+  <si>
+    <t>Centro (O. Wiesse)</t>
+  </si>
+  <si>
+    <t>Junin - L. Saenz</t>
+  </si>
+  <si>
+    <t>Ica - J. Arias</t>
+  </si>
+  <si>
+    <t>Huanuco - A. Cachay</t>
+  </si>
+  <si>
+    <t>San Martin - D. Barbaran</t>
+  </si>
+  <si>
+    <t>Loreto - C. Borrea</t>
+  </si>
+  <si>
+    <t>Sur (G. Urday)</t>
+  </si>
+  <si>
+    <t>Arequipa - A. Gomez</t>
+  </si>
+  <si>
+    <t>Cusco - D.Gistau</t>
+  </si>
+  <si>
+    <t>Puno - C. Aguayo</t>
+  </si>
+  <si>
+    <t>Tacna - J. Valdivia</t>
+  </si>
+  <si>
+    <t>Ayacucho - S. Lopez</t>
+  </si>
+  <si>
+    <t>JCIEZA</t>
+  </si>
+  <si>
+    <t>BAUGUSTO</t>
+  </si>
+  <si>
+    <t>ACACHAYF</t>
+  </si>
+  <si>
+    <t>DBARBARAN</t>
+  </si>
+  <si>
+    <t>CBORREAY</t>
+  </si>
+  <si>
+    <t>DGISTAU</t>
+  </si>
+  <si>
+    <t>Kam: Walter Vega</t>
+  </si>
+  <si>
+    <t>Kam: Guillermo Pareja</t>
+  </si>
+  <si>
+    <t>Kam: Luis Sanchez</t>
+  </si>
+  <si>
+    <t>GPAREJA</t>
+  </si>
+  <si>
+    <t>LSANCHEZ</t>
+  </si>
+  <si>
+    <t>Piura</t>
+  </si>
+  <si>
+    <t>Lambayeque</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>Ancash</t>
+  </si>
+  <si>
+    <t>Junin</t>
+  </si>
+  <si>
+    <t>Ica</t>
+  </si>
+  <si>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>Cusco</t>
+  </si>
+  <si>
+    <t>Puno</t>
+  </si>
+  <si>
+    <t>Tacna</t>
+  </si>
+  <si>
+    <t>Lambayeque - KAM</t>
+  </si>
+  <si>
+    <t>La Libertad - KAM</t>
+  </si>
+  <si>
+    <t>Ancash - KAM</t>
+  </si>
+  <si>
+    <t>Junin - KAM</t>
+  </si>
+  <si>
+    <t>Ica - KAM</t>
+  </si>
+  <si>
+    <t>Arequipa - KAM</t>
+  </si>
+  <si>
+    <t>Puno - KAM</t>
+  </si>
+  <si>
+    <t>Tacna - KAM</t>
+  </si>
+  <si>
+    <t>Giuliana Brambilla</t>
+  </si>
+  <si>
+    <t>Gerardo Muñoz</t>
+  </si>
+  <si>
+    <t>GBRAMBILLA</t>
+  </si>
+  <si>
+    <t>GMUNOZ</t>
+  </si>
+  <si>
+    <t>Tocci</t>
+  </si>
+  <si>
+    <t>Plataforma Inbound OS</t>
+  </si>
+  <si>
+    <t>Ucayali - N. Arizabal</t>
+  </si>
+  <si>
+    <t>Apurimac - J. Pacheco</t>
+  </si>
+  <si>
+    <t>JPACHECO</t>
+  </si>
+  <si>
+    <t>NARIZABAL</t>
+  </si>
+  <si>
+    <t>Piura - KAM</t>
+  </si>
+  <si>
+    <t>Cusco - KAM</t>
+  </si>
+  <si>
+    <t>COVIEDO</t>
+  </si>
+  <si>
+    <t>WVEGA</t>
+  </si>
+  <si>
+    <t>CONDOR</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>EAGLE</t>
+  </si>
+  <si>
+    <t>ARES</t>
+  </si>
+  <si>
+    <t>VENTA REGIONAL EMPRESA</t>
+  </si>
+  <si>
+    <t>REGIONAL CENTRO</t>
+  </si>
+  <si>
+    <t>REGIONAL NORTE</t>
+  </si>
+  <si>
+    <t>REGIONAL SUR</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>JPOLAR</t>
+  </si>
+  <si>
+    <t>LIMA NORTE CHICO</t>
+  </si>
+  <si>
+    <t>UCAYALI</t>
+  </si>
+  <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>MOQUEGUA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
+    <t>GC Cartera</t>
+  </si>
+  <si>
+    <t>G. BACIGALUPO</t>
+  </si>
+  <si>
+    <t>DHUARCAYA</t>
+  </si>
+  <si>
+    <t>JNARUSE</t>
+  </si>
+  <si>
+    <t>AOLAZABAL</t>
+  </si>
+  <si>
+    <t>JVALDIVIA</t>
+  </si>
+  <si>
+    <t>Sur (M.Guerra)</t>
+  </si>
+  <si>
+    <t>Castillo Tripi, Monica Beatriz</t>
+  </si>
+  <si>
+    <t>CORPORACIONES Y GRANDES CLIENTES</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE NEGOCIOS</t>
+  </si>
+  <si>
+    <t>VENTA REGIONAL</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>DEALER PYMES</t>
+  </si>
+  <si>
+    <t>PLATAFORMAS COMERCIALES</t>
+  </si>
+  <si>
+    <t>VD PYMES</t>
+  </si>
+  <si>
+    <t>SOLUCIONES DE NEGOCIO</t>
+  </si>
+  <si>
+    <t>MMECINAS</t>
+  </si>
+  <si>
+    <t>JCRUIZ</t>
+  </si>
+  <si>
+    <t>F. VASQUEZ</t>
+  </si>
+  <si>
+    <t>FVASQUEZ</t>
+  </si>
+  <si>
+    <t>Ma. Rosa Wong</t>
+  </si>
+  <si>
+    <t>Maria Rosa Wong</t>
+  </si>
+  <si>
+    <t>MGUERRA - GURDAY</t>
+  </si>
+  <si>
+    <t>JEVALDIVIA</t>
+  </si>
+  <si>
+    <t>AGOMEZ</t>
+  </si>
+  <si>
+    <t>JRUIZ</t>
+  </si>
+  <si>
+    <t>JALVAREZ</t>
+  </si>
+  <si>
+    <t>J. ALVAREZ</t>
+  </si>
+  <si>
+    <t>Juan Martinez</t>
+  </si>
+  <si>
+    <t>JMARTINEZA</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>V. PEÑA</t>
+  </si>
+  <si>
+    <t>DEALERS LIMA</t>
+  </si>
+  <si>
+    <t>DEALERS REGIONES</t>
+  </si>
+  <si>
+    <t>MRODRIGUEZ</t>
+  </si>
+  <si>
+    <t>M. RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>AFLORES</t>
+  </si>
+  <si>
+    <t>SCARVAJAL</t>
+  </si>
+  <si>
+    <t>GCORNEJO</t>
+  </si>
+  <si>
+    <t>APENA</t>
+  </si>
+  <si>
+    <t>Corporaciones</t>
+  </si>
+  <si>
+    <t>ETELLEZ-JALVAREZ</t>
+  </si>
+  <si>
+    <t>DEALERS PYMES REGION</t>
+  </si>
+  <si>
+    <t>DEALER CENTRO</t>
+  </si>
+  <si>
+    <t>DEALER NORTE</t>
+  </si>
+  <si>
+    <t>DEALER SUR</t>
+  </si>
+  <si>
+    <t>KAM ICA</t>
+  </si>
+  <si>
+    <t>KAM JUNIN</t>
+  </si>
+  <si>
+    <t>KAM ANCASH</t>
+  </si>
+  <si>
+    <t>KAM LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>KAM LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>KAM PIURA</t>
+  </si>
+  <si>
+    <t>KAM AREQUIPA</t>
+  </si>
+  <si>
+    <t>KAM CUSCO</t>
+  </si>
+  <si>
+    <t>KAM PUNO</t>
+  </si>
+  <si>
+    <t>KAM TACNA</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>LOGIN_EQUIVALENTE</t>
+  </si>
+  <si>
+    <t>LOGIN_REAL</t>
+  </si>
+  <si>
+    <t>EJECUTIVO DE ADMINISTRACIÓN PÚBLICA DE CORPORACIONES</t>
+  </si>
+  <si>
+    <t>EJECUTIVO DE CORPORACIONES</t>
+  </si>
+  <si>
+    <t>Empresas Plus IB</t>
+  </si>
+  <si>
+    <t>D. CANALE</t>
+  </si>
+  <si>
+    <t>DCANALE</t>
+  </si>
+  <si>
+    <t>P. SCHANKS</t>
+  </si>
+  <si>
+    <t>PSCHANKS</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>PUNO</t>
+  </si>
+  <si>
+    <t>MVERA</t>
+  </si>
+  <si>
+    <t>D. LOPEZ</t>
+  </si>
+  <si>
+    <t>Preferente</t>
+  </si>
+  <si>
+    <t>Jorge Chiri</t>
+  </si>
+  <si>
+    <t>D.CANALE</t>
+  </si>
+  <si>
+    <t>ESPARTA</t>
+  </si>
+  <si>
+    <t>EPENA</t>
+  </si>
+  <si>
+    <t>RREJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro </t>
+  </si>
+  <si>
+    <t>Sur (M. Guerra)</t>
+  </si>
+  <si>
     <t>OWIESSE</t>
   </si>
   <si>
-    <t>JCASTILLOT</t>
-  </si>
-  <si>
-    <t>ESAMPEN</t>
-  </si>
-  <si>
-    <t>CORPORACIONES</t>
-  </si>
-  <si>
-    <t>ALVARO (Corporaciones 2)</t>
-  </si>
-  <si>
-    <t>ANIBAL (Corporaciones 3)</t>
-  </si>
-  <si>
-    <t>FABIOLA / PAUL DIAZ (Corporaciones 1)</t>
-  </si>
-  <si>
-    <t>ROMINA (Corporaciones 4)</t>
-  </si>
-  <si>
-    <t>ECACERES</t>
-  </si>
-  <si>
-    <t>AGOMEZDECORDOVA</t>
-  </si>
-  <si>
-    <t>ACASTRO</t>
-  </si>
-  <si>
-    <t>PDIAZ</t>
-  </si>
-  <si>
-    <t>RMESETH</t>
-  </si>
-  <si>
-    <t>GRANDES CLIENTES</t>
-  </si>
-  <si>
-    <t>ROC - PD</t>
-  </si>
-  <si>
-    <t>PHOENIX - SB</t>
-  </si>
-  <si>
-    <t>EAGLE - JPA</t>
-  </si>
-  <si>
-    <t>CONDOR - RR</t>
-  </si>
-  <si>
-    <t>HUNTER - SJ</t>
-  </si>
-  <si>
-    <t>STYRKA - VA</t>
-  </si>
-  <si>
-    <t>JQUESADA</t>
-  </si>
-  <si>
-    <t>JYEPEZ</t>
-  </si>
-  <si>
-    <t>SBEZZUBIKOFF</t>
-  </si>
-  <si>
-    <t>JATKINS</t>
-  </si>
-  <si>
-    <t>SJIMENO</t>
-  </si>
-  <si>
-    <t>FTOCCI</t>
-  </si>
-  <si>
-    <t>VAGUILAR</t>
-  </si>
-  <si>
-    <t>Karen Rossel</t>
-  </si>
-  <si>
-    <t>Liliana Aguilar</t>
-  </si>
-  <si>
-    <t>José Luis Alvarado Burga</t>
-  </si>
-  <si>
-    <t>Carlos Luna Victoria</t>
-  </si>
-  <si>
-    <t>Dana Sanchez</t>
-  </si>
-  <si>
-    <t>Walter Sandoval</t>
-  </si>
-  <si>
-    <t>José Luis López</t>
-  </si>
-  <si>
-    <t>Ana Aguilar</t>
-  </si>
-  <si>
-    <t>Giancarlo García</t>
-  </si>
-  <si>
-    <t>Oscar Moreno Huacho</t>
-  </si>
-  <si>
-    <t>KROSSEL3</t>
-  </si>
-  <si>
-    <t>LAGUILAR2</t>
-  </si>
-  <si>
-    <t>JALVARADO</t>
-  </si>
-  <si>
-    <t>CLUNAVICTORIA</t>
-  </si>
-  <si>
-    <t>DSANCHEZ3</t>
-  </si>
-  <si>
-    <t>WSANDOVAL2</t>
-  </si>
-  <si>
-    <t>JLOPEZ3</t>
-  </si>
-  <si>
-    <t>AAGUILARO</t>
-  </si>
-  <si>
-    <t>GAGARCIAC</t>
-  </si>
-  <si>
-    <t>OMORENOH</t>
-  </si>
-  <si>
-    <t>Fabiola / Paul</t>
-  </si>
-  <si>
-    <t>Adm. Pública</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Anibal</t>
-  </si>
-  <si>
-    <t>Romina</t>
-  </si>
-  <si>
-    <t>Stanislav Bezzubikoff</t>
-  </si>
-  <si>
-    <t>Jaime Yepez</t>
-  </si>
-  <si>
-    <t>Jhon Patrick Atkins</t>
-  </si>
-  <si>
-    <t>Sandra Jimeno</t>
-  </si>
-  <si>
-    <t>Francisco Tocci</t>
-  </si>
-  <si>
-    <t>Violeta Aguilar</t>
-  </si>
-  <si>
-    <t>Empresas Regiones</t>
-  </si>
-  <si>
-    <t>Norte 2 (O.Wiesse)</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Empresas Regiones - Pymes</t>
-  </si>
-  <si>
-    <t>Norte 1: L.Chacón</t>
-  </si>
-  <si>
-    <t>Kam: Cristian Silva</t>
-  </si>
-  <si>
-    <t>Norte 2: O Wiesse</t>
-  </si>
-  <si>
-    <t>Kam: Luis Gallo</t>
-  </si>
-  <si>
-    <t>Kam: Jorge Castro Malaga</t>
-  </si>
-  <si>
-    <t>Kam: Luis Saenz</t>
-  </si>
-  <si>
-    <t>Kam 3</t>
-  </si>
-  <si>
-    <t>Kam: Luis Aguad</t>
-  </si>
-  <si>
-    <t>Kam: Cesar Aguayo</t>
-  </si>
-  <si>
-    <t>CSILVA</t>
-  </si>
-  <si>
-    <t>LGALLO</t>
-  </si>
-  <si>
-    <t>JCASTRO</t>
-  </si>
-  <si>
-    <t>LSAENZH</t>
-  </si>
-  <si>
-    <t>IAGUADC</t>
-  </si>
-  <si>
-    <t>CAGUAYO</t>
-  </si>
-  <si>
-    <t>Centro (J Castillo)</t>
-  </si>
-  <si>
-    <t>E.Goicochea</t>
-  </si>
-  <si>
-    <t>Cristian Silva</t>
-  </si>
-  <si>
-    <t>Jorge Castro Málaga</t>
-  </si>
-  <si>
-    <t>Luis Gallo</t>
-  </si>
-  <si>
-    <t>Luis Saenz</t>
-  </si>
-  <si>
-    <t>Cesar Aguayo</t>
-  </si>
-  <si>
-    <t>Luis Aguad</t>
-  </si>
-  <si>
-    <t>Kam: Enrique Sampén</t>
-  </si>
-  <si>
-    <t>Kam: Jorge Castro Málaga</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>Adm Publica</t>
-  </si>
-  <si>
-    <t>Ejecutivo Negocio</t>
-  </si>
-  <si>
-    <t>DALFARO</t>
-  </si>
-  <si>
-    <t>DALFARO2</t>
-  </si>
-  <si>
-    <t>DLIZARRAGA</t>
-  </si>
-  <si>
-    <t>DLIZARRAGA2</t>
-  </si>
-  <si>
-    <t>GBACIGALUPO</t>
-  </si>
-  <si>
-    <t>JGONZALES</t>
-  </si>
-  <si>
-    <t>JGONZALES6</t>
-  </si>
-  <si>
-    <t>KBRAVO</t>
-  </si>
-  <si>
-    <t>KBRAVO2</t>
-  </si>
-  <si>
-    <t>KTELLO</t>
-  </si>
-  <si>
-    <t>KTELLO2</t>
-  </si>
-  <si>
-    <t>MSANTRACRUZ2</t>
-  </si>
-  <si>
-    <t>MSANTACRUZ2</t>
-  </si>
-  <si>
-    <t>OSILVASANTISTEBAN</t>
-  </si>
-  <si>
-    <t>OSILVASANTISTEBAN2</t>
-  </si>
-  <si>
-    <t>RCASANOVA</t>
-  </si>
-  <si>
-    <t>RCASANOVA2</t>
-  </si>
-  <si>
-    <t>SRIZOPATRON</t>
-  </si>
-  <si>
-    <t>SRIZOPATRON2</t>
-  </si>
-  <si>
-    <t>VAMESQUITA</t>
-  </si>
-  <si>
-    <t>VAMESQUITA2</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>CRIOS</t>
-  </si>
-  <si>
-    <t>CRIOS5</t>
-  </si>
-  <si>
-    <t>ENRIQUE SAMPEN</t>
-  </si>
-  <si>
-    <t>JNARURE3</t>
-  </si>
-  <si>
-    <t>LUIS CHACON</t>
-  </si>
-  <si>
-    <t>Luis Chacón</t>
-  </si>
-  <si>
-    <t>Oliver Wiesse</t>
-  </si>
-  <si>
-    <t>Gerente Canal Regional</t>
-  </si>
-  <si>
-    <t>EGOICOCHEA</t>
-  </si>
-  <si>
-    <t>Janio Castillo</t>
-  </si>
-  <si>
-    <t>V.PEÑA</t>
-  </si>
-  <si>
-    <t>VPENAQ</t>
-  </si>
-  <si>
-    <t>G.RIVERA</t>
-  </si>
-  <si>
-    <t>M.GUERRA</t>
-  </si>
-  <si>
-    <t>GRIVERA</t>
-  </si>
-  <si>
-    <t>ELLONTOP</t>
-  </si>
-  <si>
-    <t>DRAMOS</t>
-  </si>
-  <si>
-    <t>MGUERRA</t>
-  </si>
-  <si>
-    <t>J. GARCIA</t>
-  </si>
-  <si>
-    <t>JGARCIAM</t>
-  </si>
-  <si>
-    <t>J.DENEGRI</t>
-  </si>
-  <si>
-    <t>R.CHUNGA</t>
-  </si>
-  <si>
-    <t>J.ORTIZ</t>
-  </si>
-  <si>
-    <t>C. RIOS</t>
-  </si>
-  <si>
-    <t>JDENEGRI</t>
-  </si>
-  <si>
-    <t>RCHUNGA</t>
-  </si>
-  <si>
-    <t>JORTIZ</t>
-  </si>
-  <si>
-    <t>D.LOPEZ</t>
-  </si>
-  <si>
-    <t>DLOPEZ</t>
-  </si>
-  <si>
-    <t>E.TELLEZ</t>
-  </si>
-  <si>
-    <t>ETELLEZ</t>
-  </si>
-  <si>
-    <t>M.MIRANDA</t>
-  </si>
-  <si>
-    <t>MMIRANDA</t>
-  </si>
-  <si>
-    <t>Alicia Rojas</t>
-  </si>
-  <si>
-    <t>Jaime Avalos</t>
-  </si>
-  <si>
-    <t>Ana Sofía Aguilar</t>
-  </si>
-  <si>
-    <t>Dario Lopez</t>
-  </si>
-  <si>
-    <t>AROJAS4</t>
-  </si>
-  <si>
-    <t>JAVALOSH</t>
-  </si>
-  <si>
-    <t>DLOPEZTE</t>
-  </si>
-  <si>
-    <t>Sur</t>
-  </si>
-  <si>
-    <t>E. BACA</t>
-  </si>
-  <si>
-    <t>Carla Villalobos</t>
-  </si>
-  <si>
-    <t>CVILLALOBOST</t>
-  </si>
-  <si>
-    <t>M. MIRANDA</t>
-  </si>
-  <si>
-    <t>Ingrid Barranca</t>
-  </si>
-  <si>
-    <t>Luis Inga</t>
-  </si>
-  <si>
-    <t>IBARRANCAB</t>
-  </si>
-  <si>
-    <t>LINGAG</t>
-  </si>
-  <si>
-    <t>Darío López</t>
-  </si>
-  <si>
-    <t>Jorge Naruse</t>
-  </si>
-  <si>
-    <t>A.CHONYEN</t>
-  </si>
-  <si>
-    <t>ACHONYEN</t>
-  </si>
-  <si>
-    <t>Milagros Dávila</t>
-  </si>
-  <si>
-    <t>Milagros Dávila - Plataforma Carterizada</t>
-  </si>
-  <si>
-    <t>Fiorella Asian - Plataforma Inbound</t>
-  </si>
-  <si>
-    <t>Fiorella Asian</t>
-  </si>
-  <si>
-    <t>Michaell Hefti - Plataforma Outbound</t>
-  </si>
-  <si>
-    <t>Rodrigo Rejas - Canales Presenciales</t>
-  </si>
-  <si>
-    <t>Michaell Hefti</t>
-  </si>
-  <si>
-    <t>Rodrigo Rejas</t>
-  </si>
-  <si>
-    <t>Kam: Victor Laguna</t>
-  </si>
-  <si>
-    <t>VLAGUNA</t>
-  </si>
-  <si>
-    <t>Redes</t>
-  </si>
-  <si>
-    <t>Reclamos</t>
-  </si>
-  <si>
-    <t>Farid Mauad</t>
-  </si>
-  <si>
-    <t>Backoffice</t>
-  </si>
-  <si>
-    <t>Erick La Torre</t>
-  </si>
-  <si>
-    <t>GUSTAVO URDAY</t>
-  </si>
-  <si>
-    <t>F. LLONTOP</t>
-  </si>
-  <si>
-    <t>D. RAMOS</t>
-  </si>
-  <si>
-    <t>E.BACA</t>
-  </si>
-  <si>
-    <t>EBACA</t>
-  </si>
-  <si>
-    <t>C.RIOS</t>
-  </si>
-  <si>
-    <t>D.LOPEZ (11 a 19 unds)</t>
-  </si>
-  <si>
-    <t>E.TELLEZ (12 a 19 unds)</t>
-  </si>
-  <si>
-    <t>M. MIRANDA (11 unds)</t>
-  </si>
-  <si>
-    <t>G.BACIGALUPO</t>
-  </si>
-  <si>
-    <t>Paloma Vessel</t>
-  </si>
-  <si>
-    <t>Carol Carrillo</t>
-  </si>
-  <si>
-    <t>CCARRILLOP</t>
-  </si>
-  <si>
-    <t>PLESSELD</t>
-  </si>
-  <si>
-    <t>Norte (L. Chacón)</t>
-  </si>
-  <si>
-    <t>Piura - L.Gallo</t>
-  </si>
-  <si>
-    <t>Lambayeque - J. Cieza</t>
-  </si>
-  <si>
-    <t>La Libertad - B. Augusto</t>
-  </si>
-  <si>
-    <t>Ancash - C. Silva</t>
-  </si>
-  <si>
-    <t>Cajamarca - J. Torres</t>
-  </si>
-  <si>
-    <t>N.Chico (Lima) - Milko Cruz</t>
-  </si>
-  <si>
-    <t>Centro (O. Wiesse)</t>
-  </si>
-  <si>
-    <t>Junin - L. Saenz</t>
-  </si>
-  <si>
-    <t>Ica - J. Arias</t>
-  </si>
-  <si>
-    <t>Huanuco - A. Cachay</t>
-  </si>
-  <si>
-    <t>San Martin - D. Barbaran</t>
-  </si>
-  <si>
-    <t>Loreto - C. Borrea</t>
-  </si>
-  <si>
-    <t>Sur (G. Urday)</t>
-  </si>
-  <si>
-    <t>Arequipa - A. Gomez</t>
-  </si>
-  <si>
-    <t>Cusco - D.Gistau</t>
-  </si>
-  <si>
-    <t>Puno - C. Aguayo</t>
-  </si>
-  <si>
-    <t>Tacna - J. Valdivia</t>
-  </si>
-  <si>
-    <t>Ayacucho - S. Lopez</t>
-  </si>
-  <si>
-    <t>JCIEZA</t>
-  </si>
-  <si>
-    <t>BAUGUSTO</t>
-  </si>
-  <si>
-    <t>JTORRES</t>
-  </si>
-  <si>
-    <t>ACACHAYF</t>
-  </si>
-  <si>
-    <t>DBARBARAN</t>
-  </si>
-  <si>
-    <t>CBORREAY</t>
-  </si>
-  <si>
-    <t>DGISTAU</t>
-  </si>
-  <si>
-    <t>Kam: Walter Vega</t>
-  </si>
-  <si>
-    <t>Kam: Guillermo Pareja</t>
-  </si>
-  <si>
-    <t>Kam: Luis Sanchez</t>
-  </si>
-  <si>
-    <t>GPAREJA</t>
-  </si>
-  <si>
-    <t>LSANCHEZ</t>
-  </si>
-  <si>
-    <t>Piura</t>
-  </si>
-  <si>
-    <t>Lambayeque</t>
-  </si>
-  <si>
-    <t>La Libertad</t>
-  </si>
-  <si>
-    <t>Ancash</t>
-  </si>
-  <si>
-    <t>Junin</t>
-  </si>
-  <si>
-    <t>Ica</t>
-  </si>
-  <si>
-    <t>Arequipa</t>
-  </si>
-  <si>
-    <t>Cusco</t>
-  </si>
-  <si>
-    <t>Puno</t>
-  </si>
-  <si>
-    <t>Tacna</t>
-  </si>
-  <si>
-    <t>Lambayeque - KAM</t>
-  </si>
-  <si>
-    <t>La Libertad - KAM</t>
-  </si>
-  <si>
-    <t>Ancash - KAM</t>
-  </si>
-  <si>
-    <t>Junin - KAM</t>
-  </si>
-  <si>
-    <t>Ica - KAM</t>
-  </si>
-  <si>
-    <t>Arequipa - KAM</t>
-  </si>
-  <si>
-    <t>Puno - KAM</t>
-  </si>
-  <si>
-    <t>Tacna - KAM</t>
-  </si>
-  <si>
-    <t>Giuliana Brambilla</t>
-  </si>
-  <si>
-    <t>Gerardo Muñoz</t>
-  </si>
-  <si>
-    <t>GBRAMBILLA</t>
-  </si>
-  <si>
-    <t>GMUNOZ</t>
-  </si>
-  <si>
-    <t>Tocci</t>
-  </si>
-  <si>
-    <t>Plataforma Inbound OS</t>
-  </si>
-  <si>
-    <t>Ucayali - N. Arizabal</t>
-  </si>
-  <si>
-    <t>Apurimac - J. Pacheco</t>
-  </si>
-  <si>
-    <t>JPACHECO</t>
-  </si>
-  <si>
-    <t>NARIZABAL</t>
-  </si>
-  <si>
-    <t>Piura - KAM</t>
-  </si>
-  <si>
-    <t>Cusco - KAM</t>
-  </si>
-  <si>
-    <t>COVIEDO</t>
-  </si>
-  <si>
-    <t>WVEGA</t>
-  </si>
-  <si>
-    <t>CONDOR</t>
-  </si>
-  <si>
-    <t>PHOENIX</t>
-  </si>
-  <si>
-    <t>ROC</t>
-  </si>
-  <si>
-    <t>EAGLE</t>
-  </si>
-  <si>
-    <t>ARES</t>
-  </si>
-  <si>
-    <t>VENTA REGIONAL EMPRESA</t>
-  </si>
-  <si>
-    <t>REGIONAL CENTRO</t>
-  </si>
-  <si>
-    <t>REGIONAL NORTE</t>
-  </si>
-  <si>
-    <t>REGIONAL SUR</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
-    <t>JPOLAR</t>
-  </si>
-  <si>
-    <t>LIMA NORTE CHICO</t>
-  </si>
-  <si>
-    <t>UCAYALI</t>
-  </si>
-  <si>
-    <t>CAJAMARCA</t>
-  </si>
-  <si>
-    <t>MOQUEGUA</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
-    <t>GC Cartera</t>
-  </si>
-  <si>
-    <t>G. BACIGALUPO</t>
-  </si>
-  <si>
-    <t>DHUARCAYA</t>
-  </si>
-  <si>
-    <t>JNARUSE</t>
-  </si>
-  <si>
-    <t>AOLAZABAL</t>
-  </si>
-  <si>
-    <t>JVALDIVIA</t>
-  </si>
-  <si>
-    <t>Sur (M.Guerra)</t>
-  </si>
-  <si>
-    <t>Castillo Tripi, Monica Beatriz</t>
-  </si>
-  <si>
-    <t>CORPORACIONES Y GRANDES CLIENTES</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE NEGOCIOS</t>
-  </si>
-  <si>
-    <t>VENTA REGIONAL</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
-  </si>
-  <si>
-    <t>DEALER PYMES</t>
-  </si>
-  <si>
-    <t>PLATAFORMAS COMERCIALES</t>
-  </si>
-  <si>
-    <t>VD PYMES</t>
-  </si>
-  <si>
-    <t>SOLUCIONES DE NEGOCIO</t>
+    <t>ECHERO</t>
+  </si>
+  <si>
+    <t>ECHERO_</t>
+  </si>
+  <si>
+    <t>LVASQUEZS</t>
+  </si>
+  <si>
+    <t>CRIVAS_</t>
+  </si>
+  <si>
+    <t>CRIVAS</t>
+  </si>
+  <si>
+    <t>MGALLA_</t>
+  </si>
+  <si>
+    <t>MGALLA</t>
+  </si>
+  <si>
+    <t>LSAENZ</t>
+  </si>
+  <si>
+    <t>Anace Elías - Gerente</t>
+  </si>
+  <si>
+    <t>Anace Elías</t>
+  </si>
+  <si>
+    <t>Carolina Pereda</t>
+  </si>
+  <si>
+    <t>Lorena Moscoso</t>
+  </si>
+  <si>
+    <t>Carolina Pereda - Back</t>
+  </si>
+  <si>
+    <t>Jorge Chiri - Inbound</t>
+  </si>
+  <si>
+    <t>Back de Retención</t>
   </si>
   <si>
     <t>Jaime Moreno</t>
   </si>
   <si>
-    <t>MMECINAS</t>
-  </si>
-  <si>
-    <t>JCRUIZ</t>
-  </si>
-  <si>
-    <t>F. VASQUEZ</t>
-  </si>
-  <si>
-    <t>FVASQUEZ</t>
-  </si>
-  <si>
-    <t>Ma. Rosa Wong</t>
-  </si>
-  <si>
-    <t>Maria Rosa Wong</t>
-  </si>
-  <si>
-    <t>MGUERRA - GURDAY</t>
-  </si>
-  <si>
-    <t>JEVALDIVIA</t>
-  </si>
-  <si>
-    <t>AGOMEZ</t>
-  </si>
-  <si>
-    <t>JRUIZ</t>
-  </si>
-  <si>
-    <t>JALVAREZ</t>
-  </si>
-  <si>
-    <t>J. ALVAREZ</t>
-  </si>
-  <si>
-    <t>Juan Martinez</t>
-  </si>
-  <si>
-    <t>JMARTINEZA</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
-    <t>Lorena Moscoso</t>
-  </si>
-  <si>
-    <t>V. PEÑA</t>
-  </si>
-  <si>
-    <t>DEALERS LIMA</t>
-  </si>
-  <si>
-    <t>DEALERS REGIONES</t>
-  </si>
-  <si>
-    <t>MRODRIGUEZ</t>
-  </si>
-  <si>
-    <t>M. RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>AFLORES</t>
-  </si>
-  <si>
-    <t>SCARVAJAL</t>
-  </si>
-  <si>
-    <t>GCORNEJO</t>
-  </si>
-  <si>
-    <t>APENA</t>
-  </si>
-  <si>
-    <t>Corporaciones</t>
-  </si>
-  <si>
-    <t>ETELLEZ-JALVAREZ</t>
-  </si>
-  <si>
-    <t>DEALERS PYMES REGION</t>
-  </si>
-  <si>
-    <t>DEALER CENTRO</t>
-  </si>
-  <si>
-    <t>DEALER NORTE</t>
-  </si>
-  <si>
-    <t>DEALER SUR</t>
-  </si>
-  <si>
-    <t>KAM ICA</t>
-  </si>
-  <si>
-    <t>KAM JUNIN</t>
-  </si>
-  <si>
-    <t>KAM ANCASH</t>
-  </si>
-  <si>
-    <t>KAM LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>KAM LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>KAM PIURA</t>
-  </si>
-  <si>
-    <t>KAM AREQUIPA</t>
-  </si>
-  <si>
-    <t>KAM CUSCO</t>
-  </si>
-  <si>
-    <t>KAM PUNO</t>
-  </si>
-  <si>
-    <t>KAM TACNA</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>LOGIN_EQUIVALENTE</t>
-  </si>
-  <si>
-    <t>LOGIN_REAL</t>
-  </si>
-  <si>
-    <t>EJECUTIVO DE ADMINISTRACIÓN PÚBLICA DE CORPORACIONES</t>
-  </si>
-  <si>
-    <t>EJECUTIVO DE CORPORACIONES</t>
-  </si>
-  <si>
-    <t>Empresas Plus IB</t>
-  </si>
-  <si>
-    <t>Back de Retención</t>
-  </si>
-  <si>
-    <t>Empresas Plus</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>D. CANALE</t>
-  </si>
-  <si>
-    <t>DCANALE</t>
-  </si>
-  <si>
-    <t>P. SCHANKS</t>
-  </si>
-  <si>
-    <t>PSCHANKS</t>
-  </si>
-  <si>
-    <t>ICA</t>
-  </si>
-  <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>PUNO</t>
-  </si>
-  <si>
-    <t>MVERA</t>
-  </si>
-  <si>
-    <t>D. LOPEZ</t>
+    <t xml:space="preserve">Lorena Moscoso </t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1589,8 +1628,8 @@
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1649,7 +1688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2058,11 +2097,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,1647 +2109,1643 @@
     <col min="1" max="1" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B106" t="s">
-        <v>301</v>
+        <v>370</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
         <v>171</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B117" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>316</v>
+        <v>272</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B121" t="s">
-        <v>222</v>
+        <v>307</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>318</v>
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>308</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B126" t="s">
-        <v>283</v>
+        <v>339</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="B129" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" t="s">
         <v>215</v>
       </c>
-      <c r="B145" t="s">
-        <v>225</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -3719,13 +3754,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -3734,13 +3769,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -3749,13 +3784,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -3764,13 +3799,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -3779,13 +3814,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="B153" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -3794,13 +3829,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -3809,13 +3844,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -3824,13 +3859,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B156" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -3839,13 +3874,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -3854,13 +3889,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -3869,13 +3904,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -3884,13 +3919,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -3899,13 +3934,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -3914,839 +3949,942 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>289</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="B169" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="B170" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B172" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="B173" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="B174" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B182" t="s">
-        <v>78</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="B186" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B183" t="s">
-        <v>78</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B184" t="s">
-        <v>78</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="B188" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B200" t="s">
+        <v>130</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>130</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202" t="s">
+        <v>130</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B203" t="s">
+        <v>130</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B204" t="s">
+        <v>130</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B205" t="s">
+        <v>130</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B206" t="s">
+        <v>287</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B198" t="s">
-        <v>135</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B199" t="s">
-        <v>135</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B200" t="s">
-        <v>135</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B201" t="s">
-        <v>135</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B202" t="s">
-        <v>135</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B203" t="s">
-        <v>135</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" t="s">
-        <v>296</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B207" t="s">
-        <v>258</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" t="s">
-        <v>6</v>
+      <c r="B208" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B211" t="s">
-        <v>6</v>
+        <v>354</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B236" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B238" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B239" t="s">
+        <v>336</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B240" t="s">
+        <v>311</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B242" t="s">
+        <v>353</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B243" t="s">
+        <v>358</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B237" t="s">
-        <v>146</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>288</v>
+      <c r="C244" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B245" t="s">
+        <v>362</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B246" t="s">
+        <v>287</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4755,5 +4893,6 @@
     <sortCondition ref="B2:B220"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Documents\Comisiones\Comisiones-python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\anaconda3\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585413B-B165-420A-BB30-35F569AC34CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5BE9E-68CA-40D2-B870-0448E3509687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="250">
   <si>
     <t>LCHACON</t>
   </si>
@@ -177,9 +177,6 @@
     <t>G.RIVERA</t>
   </si>
   <si>
-    <t>M.GUERRA</t>
-  </si>
-  <si>
     <t>GRIVERA</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
   </si>
   <si>
     <t>Erick La Torre</t>
-  </si>
-  <si>
-    <t>GUSTAVO URDAY</t>
   </si>
   <si>
     <t>D. RAMOS</t>
@@ -794,8 +788,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1342,7 +1336,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1756,37 +1750,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1795,9 +1789,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1806,9 +1800,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1817,9 +1811,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1828,9 +1822,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1839,9 +1833,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1850,9 +1844,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1861,9 +1855,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1872,18 +1866,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1891,32 +1885,32 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1924,76 +1918,76 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2001,43 +1995,43 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2045,10 +2039,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2056,21 +2050,21 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2078,10 +2072,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2089,65 +2083,65 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2155,21 +2149,21 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2177,23 +2171,23 @@
         <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2202,9 +2196,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2213,20 +2207,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2235,9 +2229,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2246,29 +2240,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>128</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -2279,40 +2273,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
@@ -2323,366 +2317,366 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
         <v>206</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C52" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>39</v>
       </c>
@@ -2690,10 +2684,10 @@
         <v>35</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>36</v>
       </c>
@@ -2701,43 +2695,43 @@
         <v>30</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>43</v>
       </c>
@@ -2745,663 +2739,641 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C107" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C118" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>142</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>246</v>
-      </c>
-      <c r="B107" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B113" t="s">
-        <v>232</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C126" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B127" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" t="s">
-        <v>115</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" t="s">
         <v>249</v>
       </c>
-      <c r="B134" t="s">
-        <v>51</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B135" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B136" t="s">
-        <v>114</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B137" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B138" t="s">
-        <v>30</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B139" t="s">
-        <v>239</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B140" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B141" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B142" t="s">
-        <v>238</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B143" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" t="s">
-        <v>111</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B145" t="s">
-        <v>151</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D131" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
-    <sortCondition ref="C2:C107"/>
-    <sortCondition ref="A2:A107"/>
+  <autoFilter ref="A1:D129" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
+    <sortCondition ref="C2:C105"/>
+    <sortCondition ref="A2:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\anaconda3\Lib\site-packages\ecomis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Anaconda3\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5BE9E-68CA-40D2-B870-0448E3509687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702064B1-8563-4067-986A-08FB5038C924}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16230" yWindow="4065" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="254">
   <si>
     <t>LCHACON</t>
   </si>
@@ -781,6 +781,18 @@
   </si>
   <si>
     <t>LVALLEJO</t>
+  </si>
+  <si>
+    <t>MSANTACRUZ2</t>
+  </si>
+  <si>
+    <t>JCHAVEZ3</t>
+  </si>
+  <si>
+    <t>MARY ISABEL</t>
+  </si>
+  <si>
+    <t>J.CHAVEZ</t>
   </si>
 </sst>
 </file>
@@ -788,8 +800,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1276,8 +1288,8 @@
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1336,7 +1348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1750,21 +1762,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>231</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>216</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>233</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>218</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>234</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>241</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>183</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>194</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>169</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
@@ -2009,7 +2021,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>158</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>159</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>224</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>219</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>133</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>220</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>222</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>124</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>223</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>204</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>210</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>208</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>182</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>77</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>209</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>211</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>153</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>83</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>82</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>214</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>226</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>225</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>156</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>228</v>
       </c>
@@ -2549,7 +2561,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -2561,7 +2573,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>90</v>
       </c>
@@ -2573,7 +2585,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
@@ -2585,7 +2597,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +2609,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
@@ -2609,7 +2621,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -2621,7 +2633,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>185</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>99</v>
       </c>
@@ -2665,7 +2677,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>128</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>39</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>36</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>200</v>
       </c>
@@ -2709,7 +2721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>104</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>43</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>195</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>101</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>155</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>37</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>100</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>203</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>202</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
@@ -2885,7 +2897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>106</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>73</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>87</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>162</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>163</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>151</v>
       </c>
@@ -2984,7 +2996,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
         <v>229</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>117</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>120</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>131</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>119</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>118</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>130</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>176</v>
       </c>
@@ -3127,7 +3139,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>177</v>
       </c>
@@ -3138,7 +3150,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>170</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>171</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>173</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>174</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>175</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>245</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>246</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>247</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>187</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>192</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>188</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>235</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>189</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>190</v>
       </c>
@@ -3292,7 +3304,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>238</v>
       </c>
@@ -3303,7 +3315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>191</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>239</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>134</v>
       </c>
@@ -3336,7 +3348,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>248</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>135</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>161</v>
       </c>
@@ -3369,8 +3381,30 @@
         <v>243</v>
       </c>
     </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B147" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D129" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
+  <autoFilter ref="A1:D145" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
     <sortCondition ref="C2:C105"/>
     <sortCondition ref="A2:A105"/>

--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Anaconda3\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702064B1-8563-4067-986A-08FB5038C924}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1AD6ED-27C3-47D4-BD6E-652EA52BC68E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="4065" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10418" yWindow="2580" windowWidth="10800" windowHeight="6173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="262">
   <si>
     <t>LCHACON</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Junin - L. Saenz</t>
   </si>
   <si>
-    <t>Huanuco - A. Cachay</t>
-  </si>
-  <si>
     <t>San Martin - D. Barbaran</t>
   </si>
   <si>
@@ -793,6 +790,33 @@
   </si>
   <si>
     <t>J.CHAVEZ</t>
+  </si>
+  <si>
+    <t>Norte (L. Chacón)</t>
+  </si>
+  <si>
+    <t>La Libertad - N. Hora</t>
+  </si>
+  <si>
+    <t>Centro (R.Rejas)</t>
+  </si>
+  <si>
+    <t>Ica - A. Flores</t>
+  </si>
+  <si>
+    <t>N.Chico (Lima) - A. Cachay</t>
+  </si>
+  <si>
+    <t>Ucayali/Huanuco/San Martin</t>
+  </si>
+  <si>
+    <t>Carla Riva</t>
+  </si>
+  <si>
+    <t>Sur (M.Guerra)</t>
+  </si>
+  <si>
+    <t>Arequipa - S. Garces</t>
   </si>
 </sst>
 </file>
@@ -1396,59 +1420,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2" xfId="26" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3" xfId="30" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6" xfId="42" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="22" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="26" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="30" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="42" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="40% - Accent2" xfId="27" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - Accent3" xfId="31" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="40% - Accent6" xfId="43" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="60% - Accent1" xfId="24" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="28" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="32" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="36" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="40" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="44" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="25" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="29" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="10" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="14" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="27" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="31" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="43" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="24" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="28" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="32" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="36" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="44" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="9" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="14" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="46" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Cancel 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Cancel 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Check Cell" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="15" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Comma 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Currency 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Explanatory Text" xfId="19" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="9" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="8" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="12" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="15" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="8" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="21" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="25" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="29" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="41" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="12" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="10" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moneda 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Neutral" xfId="11" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,18 +1493,21 @@
     <cellStyle name="Normal 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Normal 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Normal 9" xfId="57" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Note" xfId="18" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="18" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Note 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Output" xfId="13" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
     <cellStyle name="Percent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="Percent 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="Percent 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
     <cellStyle name="Percent 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="13" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="17" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="19" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="7" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1762,13 +1786,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="53.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
@@ -1778,21 +1802,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1803,7 +1827,7 @@
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1814,7 +1838,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1825,7 +1849,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1836,7 +1860,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1847,7 +1871,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1858,7 +1882,7 @@
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1869,7 +1893,7 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1886,7 +1910,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1897,7 +1921,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1908,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -1919,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1930,7 +1954,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1941,29 +1965,29 @@
         <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" t="s">
-        <v>184</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1974,7 +1998,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1985,18 +2009,18 @@
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2007,7 +2031,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -2018,18 +2042,18 @@
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2040,7 +2064,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2051,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -2062,18 +2086,18 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -2084,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -2095,7 +2119,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -2106,7 +2130,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -2117,7 +2141,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -2128,7 +2152,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -2139,18 +2163,18 @@
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -2161,7 +2185,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -2172,7 +2196,7 @@
         <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -2183,15 +2207,15 @@
         <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -2199,7 +2223,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2210,7 +2234,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2221,10 +2245,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -2232,7 +2256,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2243,7 +2267,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2254,10 +2278,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
@@ -2265,10 +2289,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>6</v>
@@ -2290,7 +2314,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
@@ -2301,7 +2325,7 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -2309,10 +2333,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>6</v>
@@ -2331,24 +2355,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
         <v>204</v>
       </c>
-      <c r="B51" t="s">
-        <v>205</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -2359,40 +2383,40 @@
         <v>86</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -2403,51 +2427,51 @@
         <v>78</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
         <v>212</v>
       </c>
-      <c r="B58" t="s">
-        <v>213</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
         <v>153</v>
       </c>
-      <c r="B61" t="s">
-        <v>154</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -2458,7 +2482,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -2469,18 +2493,18 @@
         <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -2491,7 +2515,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -2499,65 +2523,65 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -2569,7 +2593,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -2581,7 +2605,7 @@
         <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2593,7 +2617,7 @@
         <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -2605,19 +2629,19 @@
         <v>89</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76" s="3"/>
     </row>
@@ -2629,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="3"/>
     </row>
@@ -2641,29 +2665,29 @@
         <v>53</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
         <v>185</v>
       </c>
-      <c r="B80" t="s">
-        <v>186</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -2674,18 +2698,18 @@
         <v>30</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
         <v>128</v>
       </c>
-      <c r="B82" t="s">
-        <v>129</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -2696,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -2707,40 +2731,40 @@
         <v>30</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -2751,18 +2775,18 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -2773,29 +2797,29 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -2806,7 +2830,7 @@
         <v>32</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -2817,7 +2841,7 @@
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -2825,32 +2849,32 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -2861,7 +2885,7 @@
         <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -2872,18 +2896,18 @@
         <v>33</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -2894,51 +2918,51 @@
         <v>31</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -2949,7 +2973,7 @@
         <v>74</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -2960,451 +2984,539 @@
         <v>49</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
         <v>229</v>
       </c>
-      <c r="B111" t="s">
-        <v>230</v>
-      </c>
       <c r="C111" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>81</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
         <v>81</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B132" t="s">
         <v>50</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
         <v>31</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B147" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B147" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>147</v>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B150" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B151" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B152" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B153" t="s">
+        <v>198</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" t="s">
+        <v>235</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D145" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
+  <autoFilter ref="A1:D147" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
     <sortCondition ref="C2:C105"/>
     <sortCondition ref="A2:A105"/>

--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Anaconda3\Lib\site-packages\ecomis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\anaconda\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1AD6ED-27C3-47D4-BD6E-652EA52BC68E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CFCAE-FF73-4753-9329-52682FE06D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10418" yWindow="2580" windowWidth="10800" windowHeight="6173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$D$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Similar!$A$1:$E$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -258,42 +261,9 @@
     <t>ACHONYEN</t>
   </si>
   <si>
-    <t>Milagros Dávila</t>
-  </si>
-  <si>
-    <t>Milagros Dávila - Plataforma Carterizada</t>
-  </si>
-  <si>
-    <t>Fiorella Asian - Plataforma Inbound</t>
-  </si>
-  <si>
-    <t>Fiorella Asian</t>
-  </si>
-  <si>
-    <t>Michaell Hefti - Plataforma Outbound</t>
-  </si>
-  <si>
-    <t>Michaell Hefti</t>
-  </si>
-  <si>
     <t>VLAGUNA</t>
   </si>
   <si>
-    <t>Redes</t>
-  </si>
-  <si>
-    <t>Reclamos</t>
-  </si>
-  <si>
-    <t>Farid Mauad</t>
-  </si>
-  <si>
-    <t>Backoffice</t>
-  </si>
-  <si>
-    <t>Erick La Torre</t>
-  </si>
-  <si>
     <t>D. RAMOS</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>GMUNOZ</t>
   </si>
   <si>
-    <t>Plataforma Inbound OS</t>
-  </si>
-  <si>
     <t>Apurimac - J. Pacheco</t>
   </si>
   <si>
@@ -453,9 +420,6 @@
     <t>JVALDIVIA</t>
   </si>
   <si>
-    <t>Castillo Tripi, Monica Beatriz</t>
-  </si>
-  <si>
     <t>CORPORACIONES Y GRANDES CLIENTES</t>
   </si>
   <si>
@@ -489,12 +453,6 @@
     <t>FVASQUEZ</t>
   </si>
   <si>
-    <t>Ma. Rosa Wong</t>
-  </si>
-  <si>
-    <t>Maria Rosa Wong</t>
-  </si>
-  <si>
     <t>JEVALDIVIA</t>
   </si>
   <si>
@@ -576,9 +534,6 @@
     <t>LOGIN_REAL</t>
   </si>
   <si>
-    <t>Empresas Plus IB</t>
-  </si>
-  <si>
     <t>D. CANALE</t>
   </si>
   <si>
@@ -609,9 +564,6 @@
     <t>CUSCO</t>
   </si>
   <si>
-    <t>Jorge Chiri</t>
-  </si>
-  <si>
     <t>D.CANALE</t>
   </si>
   <si>
@@ -642,42 +594,6 @@
     <t>LSAENZ</t>
   </si>
   <si>
-    <t>Anace Elías - Gerente</t>
-  </si>
-  <si>
-    <t>Anace Elías</t>
-  </si>
-  <si>
-    <t>Carolina Pereda</t>
-  </si>
-  <si>
-    <t>Lorena Moscoso</t>
-  </si>
-  <si>
-    <t>Carolina Pereda - Back</t>
-  </si>
-  <si>
-    <t>Jorge Chiri - Inbound</t>
-  </si>
-  <si>
-    <t>Back de Retención</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Moscoso </t>
-  </si>
-  <si>
-    <t>Jaime Moreno - Back</t>
-  </si>
-  <si>
-    <t>Jaime Moreno</t>
-  </si>
-  <si>
-    <t>Redes sociales</t>
-  </si>
-  <si>
-    <t>Medina Salcedo, Jaime Enrique</t>
-  </si>
-  <si>
     <t>CORPORACIONES1 (Paul Diaz)</t>
   </si>
   <si>
@@ -817,6 +733,93 @@
   </si>
   <si>
     <t>Arequipa - S. Garces</t>
+  </si>
+  <si>
+    <t>ANACE ELÍAS</t>
+  </si>
+  <si>
+    <t>CAROLINA PEREDA</t>
+  </si>
+  <si>
+    <t>ERICK LA TORRE</t>
+  </si>
+  <si>
+    <t>FARID MAUAD</t>
+  </si>
+  <si>
+    <t>JORGE CHIRI</t>
+  </si>
+  <si>
+    <t>FIORELLA ASIAN</t>
+  </si>
+  <si>
+    <t>JAIME MORENO</t>
+  </si>
+  <si>
+    <t>LORENA MOSCOSO</t>
+  </si>
+  <si>
+    <t>MARIA ROSA WONG</t>
+  </si>
+  <si>
+    <t>MICHAELL HEFTI</t>
+  </si>
+  <si>
+    <t>MILAGROS DÁVILA</t>
+  </si>
+  <si>
+    <t>CASTILLO TRIPI, MONICA BEATRIZ</t>
+  </si>
+  <si>
+    <t>MEDINA SALCEDO, JAIME ENRIQUE</t>
+  </si>
+  <si>
+    <t>ANACE ELÍAS - GERENTE</t>
+  </si>
+  <si>
+    <t>BACK DE RETENCIÓN</t>
+  </si>
+  <si>
+    <t>BACKOFFICE</t>
+  </si>
+  <si>
+    <t>CAROLINA PEREDA - BACK</t>
+  </si>
+  <si>
+    <t>EMPRESAS PLUS IB</t>
+  </si>
+  <si>
+    <t>FIORELLA ASIAN - PLATAFORMA INBOUND</t>
+  </si>
+  <si>
+    <t>JAIME MORENO - BACK</t>
+  </si>
+  <si>
+    <t>JORGE CHIRI - INBOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORENA MOSCOSO </t>
+  </si>
+  <si>
+    <t>MA. ROSA WONG</t>
+  </si>
+  <si>
+    <t>MICHAELL HEFTI - PLATAFORMA OUTBOUND</t>
+  </si>
+  <si>
+    <t>MILAGROS DÁVILA - PLATAFORMA CARTERIZADA</t>
+  </si>
+  <si>
+    <t>PLATAFORMA INBOUND OS</t>
+  </si>
+  <si>
+    <t>RECLAMOS</t>
+  </si>
+  <si>
+    <t>REDES</t>
+  </si>
+  <si>
+    <t>REDES SOCIALES</t>
   </si>
 </sst>
 </file>
@@ -1786,37 +1789,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="53.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3828125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1825,9 +1829,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1836,9 +1840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1846,10 +1850,11 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1857,10 +1862,11 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1868,10 +1874,11 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1879,10 +1886,11 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1891,9 +1899,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1902,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1910,10 +1918,11 @@
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1921,10 +1930,11 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1932,10 +1942,11 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1943,10 +1954,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1954,43 +1965,47 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -1998,10 +2013,11 @@
         <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
@@ -2009,21 +2025,23 @@
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2031,10 +2049,11 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
@@ -2042,21 +2061,23 @@
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -2064,10 +2085,11 @@
         <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2075,10 +2097,11 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2086,21 +2109,23 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2108,10 +2133,11 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2119,10 +2145,11 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -2130,10 +2157,11 @@
         <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2141,21 +2169,21 @@
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -2163,21 +2191,22 @@
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2185,21 +2214,21 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2207,23 +2236,25 @@
         <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2231,10 +2262,11 @@
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2242,21 +2274,23 @@
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2264,10 +2298,11 @@
       <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2275,30 +2310,33 @@
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -2308,41 +2346,45 @@
       <c r="C46" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
@@ -2353,239 +2395,259 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -2593,71 +2655,77 @@
         <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
@@ -2665,54 +2733,59 @@
         <v>53</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>39</v>
       </c>
@@ -2720,10 +2793,11 @@
         <v>35</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>36</v>
       </c>
@@ -2731,43 +2805,47 @@
         <v>30</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>43</v>
       </c>
@@ -2775,21 +2853,23 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
@@ -2797,32 +2877,35 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>37</v>
       </c>
@@ -2830,54 +2913,59 @@
         <v>32</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
@@ -2885,10 +2973,11 @@
         <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -2896,76 +2985,83 @@
         <v>33</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>73</v>
       </c>
@@ -2973,550 +3069,599 @@
         <v>74</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
         <v>50</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
         <v>31</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>219</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B142" t="s">
-        <v>108</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B143" t="s">
-        <v>148</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" t="s">
-        <v>239</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B145" t="s">
-        <v>248</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
         <v>50</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E155" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D147" xr:uid="{B15DDEFA-C387-443B-B84D-3BD797479D96}"/>
+  <autoFilter ref="A1:E155" xr:uid="{2235B6E3-EB42-4BFE-8F35-628962F796FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
     <sortCondition ref="C2:C105"/>
     <sortCondition ref="A2:A105"/>

--- a/Data/logins equivalentes.xlsx
+++ b/Data/logins equivalentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\anaconda\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CFCAE-FF73-4753-9329-52682FE06D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561182B4-07DE-4BC6-8BBB-A6A005A41942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="15915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similar" sheetId="1" r:id="rId1"/>
@@ -759,9 +759,6 @@
     <t>LORENA MOSCOSO</t>
   </si>
   <si>
-    <t>MARIA ROSA WONG</t>
-  </si>
-  <si>
     <t>MICHAELL HEFTI</t>
   </si>
   <si>
@@ -801,9 +798,6 @@
     <t xml:space="preserve">LORENA MOSCOSO </t>
   </si>
   <si>
-    <t>MA. ROSA WONG</t>
-  </si>
-  <si>
     <t>MICHAELL HEFTI - PLATAFORMA OUTBOUND</t>
   </si>
   <si>
@@ -820,6 +814,12 @@
   </si>
   <si>
     <t>REDES SOCIALES</t>
+  </si>
+  <si>
+    <t>Servicios fijos  (Joana Castro)</t>
+  </si>
+  <si>
+    <t>JOANA CASTRO</t>
   </si>
 </sst>
 </file>
@@ -1791,20 +1791,20 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.61328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3828125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>201</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>202</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>203</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>188</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>204</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>211</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>166</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>176</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>153</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>143</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>194</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>189</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>120</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>190</v>
       </c>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>191</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>192</v>
       </c>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>112</v>
       </c>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>111</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>193</v>
       </c>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
@@ -2395,9 +2395,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
         <v>233</v>
@@ -2407,9 +2407,9 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
         <v>234</v>
@@ -2419,9 +2419,9 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
         <v>235</v>
@@ -2431,9 +2431,9 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
         <v>234</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>128</v>
       </c>
@@ -2454,9 +2454,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
         <v>237</v>
@@ -2466,9 +2466,9 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
         <v>238</v>
@@ -2478,9 +2478,9 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
         <v>239</v>
@@ -2490,9 +2490,9 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s">
         <v>237</v>
@@ -2502,9 +2502,9 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
         <v>240</v>
@@ -2514,45 +2514,45 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>238</v>
@@ -2562,9 +2562,9 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>236</v>
@@ -2574,31 +2574,31 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>196</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>198</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>124</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>149</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>168</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>88</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>115</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>39</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>182</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>92</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>179</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>228</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>139</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>37</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>89</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>87</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>91</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>185</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>184</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>86</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>93</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>90</v>
       </c>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>94</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>73</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>76</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>146</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>137</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
         <v>199</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>103</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>109</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>110</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>156</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>160</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>161</v>
       </c>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>154</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>155</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>157</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>158</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>159</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>215</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>216</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>217</v>
       </c>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>170</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>175</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>171</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>205</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>172</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>173</v>
       </c>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>208</v>
       </c>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>174</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>209</v>
       </c>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>121</v>
       </c>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>218</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>122</v>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>222</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>223</v>
       </c>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>224</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>225</v>
       </c>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>226</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>227</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>229</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>230</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>231</v>
       </c>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>232</v>
       </c>
